--- a/runs/run790/NotionalETEOutput790.xlsx
+++ b/runs/run790/NotionalETEOutput790.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_HIGHWIND0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_183.MISSILE_ANGERMAX3_183</t>
+    <t>MISSILE_HIGHWIND0_122.MISSILE_HIGHWIND0_122</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_HIGHWIND0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1538.419363459861</v>
+        <v>-1454.952182265849</v>
       </c>
       <c r="J2">
-        <v>2071.431910952184</v>
+        <v>1991.375181384417</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1520.5519393284</v>
+        <v>-1504.606793136724</v>
       </c>
       <c r="J3">
-        <v>2046.783182261727</v>
+        <v>1967.841175024124</v>
       </c>
       <c r="K3">
-        <v>298.0096244452183</v>
+        <v>315.5622401231048</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1374.916388803805</v>
+        <v>-1481.595565318477</v>
       </c>
       <c r="J4">
-        <v>1827.41240482807</v>
+        <v>1876.281954456685</v>
       </c>
       <c r="K4">
-        <v>600.260559758452</v>
+        <v>565.9389865195387</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1432.227131806367</v>
+        <v>-1363.588388988699</v>
       </c>
       <c r="J5">
-        <v>1920.455723322628</v>
+        <v>1917.855041035608</v>
       </c>
       <c r="K5">
-        <v>859.3066135074123</v>
+        <v>857.4083458287529</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1351.24247193069</v>
+        <v>-1403.96437475205</v>
       </c>
       <c r="J6">
-        <v>1746.55740407502</v>
+        <v>1815.07260394054</v>
       </c>
       <c r="K6">
-        <v>1106.415447615263</v>
+        <v>1113.715163246321</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1297.245089899837</v>
+        <v>-1400.861544082938</v>
       </c>
       <c r="J7">
-        <v>1674.671669851241</v>
+        <v>1754.514308405761</v>
       </c>
       <c r="K7">
-        <v>1300.145051964383</v>
+        <v>1377.019012883409</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1330.9120035099</v>
+        <v>-1316.248580855496</v>
       </c>
       <c r="J8">
-        <v>1713.50070506231</v>
+        <v>1681.995857555416</v>
       </c>
       <c r="K8">
-        <v>1525.163301673891</v>
+        <v>1647.107865962184</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.203793514333</v>
+        <v>-96.90038938265728</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1338.640856415311</v>
+        <v>-1296.904462462657</v>
       </c>
       <c r="J9">
-        <v>1626.799495163551</v>
+        <v>1579.71704505824</v>
       </c>
       <c r="K9">
-        <v>1837.713856294222</v>
+        <v>1897.918769595517</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.9888618327393</v>
+        <v>227.9265638145859</v>
       </c>
       <c r="G10">
-        <v>-82.16603691222271</v>
+        <v>-84.83982779940594</v>
       </c>
       <c r="H10">
-        <v>899.293193275775</v>
+        <v>822.3961298597262</v>
       </c>
       <c r="I10">
-        <v>-1286.216045032549</v>
+        <v>-1255.273838557197</v>
       </c>
       <c r="J10">
-        <v>1632.007165636762</v>
+        <v>1667.598516951384</v>
       </c>
       <c r="K10">
-        <v>2076.049913875398</v>
+        <v>2058.230543501121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>162.6035921169351</v>
+        <v>162.8579843371604</v>
       </c>
       <c r="G11">
-        <v>-64.50973316967544</v>
+        <v>-63.85233151102516</v>
       </c>
       <c r="H11">
-        <v>1077.711224275681</v>
+        <v>1008.038324516254</v>
       </c>
       <c r="I11">
-        <v>-1202.512714293391</v>
+        <v>-1153.023070917032</v>
       </c>
       <c r="J11">
-        <v>1584.512982721556</v>
+        <v>1573.890578747137</v>
       </c>
       <c r="K11">
-        <v>2206.39852579141</v>
+        <v>2283.913314385504</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.9671417323149</v>
+        <v>142.3244097949692</v>
       </c>
       <c r="G12">
-        <v>-52.63132860333905</v>
+        <v>-52.59028905861494</v>
       </c>
       <c r="H12">
-        <v>1149.713666499218</v>
+        <v>1167.601494697177</v>
       </c>
       <c r="I12">
-        <v>-1177.262416436901</v>
+        <v>-1152.039785103597</v>
       </c>
       <c r="J12">
-        <v>1532.189391781455</v>
+        <v>1542.976145973912</v>
       </c>
       <c r="K12">
-        <v>2373.713851529503</v>
+        <v>2418.084262650057</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.088352831253</v>
+        <v>119.6958405722442</v>
       </c>
       <c r="G13">
-        <v>-32.32468752096391</v>
+        <v>-33.89571508047861</v>
       </c>
       <c r="H13">
-        <v>1318.966700472795</v>
+        <v>1315.89104114059</v>
       </c>
       <c r="I13">
-        <v>-1159.147728509517</v>
+        <v>-1180.623717361131</v>
       </c>
       <c r="J13">
-        <v>1446.075119558623</v>
+        <v>1465.471495209825</v>
       </c>
       <c r="K13">
-        <v>2431.428647791281</v>
+        <v>2420.306172850869</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.558578264274</v>
+        <v>105.9968713149272</v>
       </c>
       <c r="G14">
-        <v>-17.76899171723369</v>
+        <v>-17.47593154671318</v>
       </c>
       <c r="H14">
-        <v>1349.390775434736</v>
+        <v>1390.350875723022</v>
       </c>
       <c r="I14">
-        <v>-1097.592279923655</v>
+        <v>-1108.572132560344</v>
       </c>
       <c r="J14">
-        <v>1486.85394785217</v>
+        <v>1381.03845157347</v>
       </c>
       <c r="K14">
-        <v>2720.900863573603</v>
+        <v>2537.317085773399</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.22681273991685</v>
+        <v>104.3016899949456</v>
       </c>
       <c r="G15">
-        <v>-0.8881921121665499</v>
+        <v>-0.9378655594325973</v>
       </c>
       <c r="H15">
-        <v>1320.372821744432</v>
+        <v>1446.328281810911</v>
       </c>
       <c r="I15">
-        <v>-1018.765174412659</v>
+        <v>-1098.054937221446</v>
       </c>
       <c r="J15">
-        <v>1412.189031304967</v>
+        <v>1362.106151445682</v>
       </c>
       <c r="K15">
-        <v>2829.033610402311</v>
+        <v>2836.564322986494</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.60268702789396</v>
+        <v>91.97500651888961</v>
       </c>
       <c r="G16">
-        <v>16.13338730283473</v>
+        <v>15.83903152178609</v>
       </c>
       <c r="H16">
-        <v>1491.296842150336</v>
+        <v>1456.712514208293</v>
       </c>
       <c r="I16">
-        <v>-1023.183671726616</v>
+        <v>-1042.40134205853</v>
       </c>
       <c r="J16">
-        <v>1297.980278561182</v>
+        <v>1255.132093219186</v>
       </c>
       <c r="K16">
-        <v>2953.908832101049</v>
+        <v>2748.755373950793</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.88734606594305</v>
+        <v>83.10580302508444</v>
       </c>
       <c r="G17">
-        <v>32.92504055876184</v>
+        <v>32.5333789178358</v>
       </c>
       <c r="H17">
-        <v>1498.293295384821</v>
+        <v>1418.943551886382</v>
       </c>
       <c r="I17">
-        <v>-1011.148522779432</v>
+        <v>-983.3086209523931</v>
       </c>
       <c r="J17">
-        <v>1324.94391677941</v>
+        <v>1259.1793617293</v>
       </c>
       <c r="K17">
-        <v>2995.841259114513</v>
+        <v>3002.692597711048</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.49293558645707</v>
+        <v>78.95343182084576</v>
       </c>
       <c r="G18">
-        <v>47.47668886505616</v>
+        <v>48.77633162006216</v>
       </c>
       <c r="H18">
-        <v>1447.882847066403</v>
+        <v>1549.405622515049</v>
       </c>
       <c r="I18">
-        <v>-936.1175654514919</v>
+        <v>-969.0966254519661</v>
       </c>
       <c r="J18">
-        <v>1205.687484945343</v>
+        <v>1200.827642977798</v>
       </c>
       <c r="K18">
-        <v>2938.343437084282</v>
+        <v>2953.184813978732</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.78543734680413</v>
+        <v>79.15271544057804</v>
       </c>
       <c r="G19">
-        <v>68.23175296532412</v>
+        <v>67.1276810989711</v>
       </c>
       <c r="H19">
-        <v>1558.550692325243</v>
+        <v>1512.571489528045</v>
       </c>
       <c r="I19">
-        <v>-904.5266043144027</v>
+        <v>-867.472121549479</v>
       </c>
       <c r="J19">
-        <v>1192.129594167603</v>
+        <v>1178.725219233688</v>
       </c>
       <c r="K19">
-        <v>3236.231695912218</v>
+        <v>3154.30134599149</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.58312605601161</v>
+        <v>76.15025044521121</v>
       </c>
       <c r="G20">
-        <v>78.01394326437527</v>
+        <v>78.63205716989188</v>
       </c>
       <c r="H20">
-        <v>1612.83053590233</v>
+        <v>1561.486897085868</v>
       </c>
       <c r="I20">
-        <v>-840.5522751650906</v>
+        <v>-800.8298851490563</v>
       </c>
       <c r="J20">
-        <v>1078.063192313943</v>
+        <v>1147.921009971078</v>
       </c>
       <c r="K20">
-        <v>3275.505791573545</v>
+        <v>3180.759865555927</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.89470157684805</v>
+        <v>68.78610733336519</v>
       </c>
       <c r="G21">
-        <v>95.55776501198615</v>
+        <v>93.33694299296347</v>
       </c>
       <c r="H21">
-        <v>1540.107679341061</v>
+        <v>1535.68308283756</v>
       </c>
       <c r="I21">
-        <v>-761.3056388276084</v>
+        <v>-807.3142344424265</v>
       </c>
       <c r="J21">
-        <v>1037.005280147062</v>
+        <v>1099.875608077303</v>
       </c>
       <c r="K21">
-        <v>3151.802490204562</v>
+        <v>3206.121416169637</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.43757673892718</v>
+        <v>69.49651651441236</v>
       </c>
       <c r="G22">
-        <v>119.4646854466561</v>
+        <v>110.9884637526464</v>
       </c>
       <c r="H22">
-        <v>1651.877233265923</v>
+        <v>1577.397392684076</v>
       </c>
       <c r="I22">
-        <v>-759.3340054456361</v>
+        <v>-709.8471360181888</v>
       </c>
       <c r="J22">
-        <v>1007.431425072414</v>
+        <v>1047.374580975575</v>
       </c>
       <c r="K22">
-        <v>3283.906253941026</v>
+        <v>3146.6967077939</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.88025479763921</v>
+        <v>65.78351324742796</v>
       </c>
       <c r="G23">
-        <v>135.0178370477986</v>
+        <v>133.6809905797524</v>
       </c>
       <c r="H23">
-        <v>1596.43779565401</v>
+        <v>1563.480610850232</v>
       </c>
       <c r="I23">
-        <v>-682.3094115028962</v>
+        <v>-677.6740391621827</v>
       </c>
       <c r="J23">
-        <v>1020.399370706215</v>
+        <v>976.4814853300724</v>
       </c>
       <c r="K23">
-        <v>3054.610324480061</v>
+        <v>3324.439617155994</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.78295046984864</v>
+        <v>62.78624838471536</v>
       </c>
       <c r="G24">
-        <v>142.6193145470013</v>
+        <v>150.5976789982697</v>
       </c>
       <c r="H24">
-        <v>1647.36161286939</v>
+        <v>1640.61426049689</v>
       </c>
       <c r="I24">
-        <v>-650.3258489699006</v>
+        <v>-670.86407705892</v>
       </c>
       <c r="J24">
-        <v>886.0846989192322</v>
+        <v>902.8934383406089</v>
       </c>
       <c r="K24">
-        <v>3335.858245673378</v>
+        <v>3285.242104019967</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.36220203925622</v>
+        <v>62.22238077873889</v>
       </c>
       <c r="G25">
-        <v>157.7253585481105</v>
+        <v>168.4807868561271</v>
       </c>
       <c r="H25">
-        <v>1648.090333022639</v>
+        <v>1749.915312624559</v>
       </c>
       <c r="I25">
-        <v>-570.3388348071611</v>
+        <v>-600.9782097891474</v>
       </c>
       <c r="J25">
-        <v>858.8776804037493</v>
+        <v>912.5006595949786</v>
       </c>
       <c r="K25">
-        <v>3153.096400037363</v>
+        <v>3192.603771771903</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.8393019691153</v>
+        <v>62.06023221113384</v>
       </c>
       <c r="G26">
-        <v>183.7169503625048</v>
+        <v>172.912104999024</v>
       </c>
       <c r="H26">
-        <v>1756.258670505775</v>
+        <v>1771.070807660356</v>
       </c>
       <c r="I26">
-        <v>-538.433741274294</v>
+        <v>-549.8623536437262</v>
       </c>
       <c r="J26">
-        <v>830.5828021822659</v>
+        <v>838.9908545619842</v>
       </c>
       <c r="K26">
-        <v>3118.562680289405</v>
+        <v>3076.131391377322</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.53851936501968</v>
+        <v>59.28165717028168</v>
       </c>
       <c r="G27">
-        <v>196.354283150668</v>
+        <v>199.9728758725071</v>
       </c>
       <c r="H27">
-        <v>1670.689189791658</v>
+        <v>1665.81567742648</v>
       </c>
       <c r="I27">
-        <v>-469.3624831846984</v>
+        <v>-492.5704599190197</v>
       </c>
       <c r="J27">
-        <v>776.100224853669</v>
+        <v>768.627996991679</v>
       </c>
       <c r="K27">
-        <v>3084.154537275048</v>
+        <v>2942.259416532498</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.16630068049959</v>
+        <v>55.88939525100931</v>
       </c>
       <c r="G28">
-        <v>220.0906891997829</v>
+        <v>216.5405892960327</v>
       </c>
       <c r="H28">
-        <v>1708.59511217204</v>
+        <v>1774.391562088938</v>
       </c>
       <c r="I28">
-        <v>-452.5963660011503</v>
+        <v>-439.7777040153733</v>
       </c>
       <c r="J28">
-        <v>738.6883996574502</v>
+        <v>756.9541387157172</v>
       </c>
       <c r="K28">
-        <v>2993.836172702721</v>
+        <v>2903.654506708826</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.20158466539514</v>
+        <v>54.53680229850369</v>
       </c>
       <c r="G29">
-        <v>235.3891608267915</v>
+        <v>240.5090158538965</v>
       </c>
       <c r="H29">
-        <v>1693.421198672569</v>
+        <v>1789.999393288752</v>
       </c>
       <c r="I29">
-        <v>-375.8762824839775</v>
+        <v>-372.6271627497616</v>
       </c>
       <c r="J29">
-        <v>697.1970521452811</v>
+        <v>670.7062541261972</v>
       </c>
       <c r="K29">
-        <v>2922.237085664057</v>
+        <v>2832.865222498696</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.05514241391674</v>
+        <v>55.62630133933872</v>
       </c>
       <c r="G30">
-        <v>245.6922570145472</v>
+        <v>255.4844334607029</v>
       </c>
       <c r="H30">
-        <v>1719.281155921294</v>
+        <v>1807.029357013656</v>
       </c>
       <c r="I30">
-        <v>-325.5141462902144</v>
+        <v>-318.5548599906527</v>
       </c>
       <c r="J30">
-        <v>627.5198439455233</v>
+        <v>617.6241338655241</v>
       </c>
       <c r="K30">
-        <v>2663.261976479069</v>
+        <v>2715.278321276994</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.76563391830469</v>
+        <v>50.884708209497</v>
       </c>
       <c r="G31">
-        <v>275.257067299724</v>
+        <v>272.2838707074562</v>
       </c>
       <c r="H31">
-        <v>1774.742710408494</v>
+        <v>1746.168936722614</v>
       </c>
       <c r="I31">
-        <v>-275.2442048848786</v>
+        <v>-275.6531783956651</v>
       </c>
       <c r="J31">
-        <v>571.2888968075151</v>
+        <v>585.9517791440934</v>
       </c>
       <c r="K31">
-        <v>2639.565227066405</v>
+        <v>2592.538819147104</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.67408476333578</v>
+        <v>49.24900123946485</v>
       </c>
       <c r="G32">
-        <v>290.2848862218874</v>
+        <v>287.3712173595215</v>
       </c>
       <c r="H32">
-        <v>1719.365440173667</v>
+        <v>1718.645075795497</v>
       </c>
       <c r="I32">
-        <v>-204.2324699582122</v>
+        <v>-209.177588315847</v>
       </c>
       <c r="J32">
-        <v>542.8483720916312</v>
+        <v>567.4579264126146</v>
       </c>
       <c r="K32">
-        <v>2468.996808447659</v>
+        <v>2436.824915448942</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.16566548547114</v>
+        <v>49.36478196127015</v>
       </c>
       <c r="G33">
-        <v>296.3550623704227</v>
+        <v>305.2262927596776</v>
       </c>
       <c r="H33">
-        <v>1763.237343716542</v>
+        <v>1869.108613831605</v>
       </c>
       <c r="I33">
-        <v>-139.7902625948111</v>
+        <v>-144.6510524861611</v>
       </c>
       <c r="J33">
-        <v>489.9486751630812</v>
+        <v>474.0883803580947</v>
       </c>
       <c r="K33">
-        <v>2459.011376705422</v>
+        <v>2336.32983021973</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.51932837901872</v>
+        <v>51.60142495053052</v>
       </c>
       <c r="G34">
-        <v>306.9294671046375</v>
+        <v>311.7897712431115</v>
       </c>
       <c r="H34">
-        <v>1795.827989479225</v>
+        <v>1812.668151383259</v>
       </c>
       <c r="I34">
-        <v>-83.01705530377824</v>
+        <v>-84.66678516636695</v>
       </c>
       <c r="J34">
-        <v>451.242827324326</v>
+        <v>457.5550809371505</v>
       </c>
       <c r="K34">
-        <v>2144.010371630076</v>
+        <v>2308.093451098949</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.46343228312851</v>
+        <v>50.65932296939161</v>
       </c>
       <c r="G35">
-        <v>320.1178443304486</v>
+        <v>339.1875180401034</v>
       </c>
       <c r="H35">
-        <v>1829.821757620066</v>
+        <v>1735.357977225188</v>
       </c>
       <c r="I35">
-        <v>-17.95605473010027</v>
+        <v>-18.25375281580058</v>
       </c>
       <c r="J35">
-        <v>388.9755582143308</v>
+        <v>409.2443324098183</v>
       </c>
       <c r="K35">
-        <v>2101.597119164716</v>
+        <v>2125.377891960244</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.17738072184662</v>
+        <v>49.1417395341882</v>
       </c>
       <c r="G36">
-        <v>337.8219053398993</v>
+        <v>338.9963167214523</v>
       </c>
       <c r="H36">
-        <v>1815.417578966074</v>
+        <v>1740.712118171508</v>
       </c>
       <c r="I36">
-        <v>47.73686937884616</v>
+        <v>49.64266448977656</v>
       </c>
       <c r="J36">
-        <v>356.916072143072</v>
+        <v>358.0954206066333</v>
       </c>
       <c r="K36">
-        <v>1788.998935247834</v>
+        <v>1763.328130465076</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.7143491887986</v>
+        <v>45.18586775001893</v>
       </c>
       <c r="G37">
-        <v>350.1770922071564</v>
+        <v>345.7494797178419</v>
       </c>
       <c r="H37">
-        <v>1894.003100037482</v>
+        <v>1875.788598624316</v>
       </c>
       <c r="I37">
-        <v>119.5672950824294</v>
+        <v>116.3017851425852</v>
       </c>
       <c r="J37">
-        <v>296.1343530181685</v>
+        <v>286.6853386509887</v>
       </c>
       <c r="K37">
-        <v>1564.629982011415</v>
+        <v>1655.651303085538</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.00976879777595</v>
+        <v>44.64661250579834</v>
       </c>
       <c r="G38">
-        <v>372.9580921525988</v>
+        <v>372.4102900666194</v>
       </c>
       <c r="H38">
-        <v>1812.65365739475</v>
+        <v>1892.343748516406</v>
       </c>
       <c r="I38">
-        <v>191.4300671350218</v>
+        <v>189.2264910799402</v>
       </c>
       <c r="J38">
-        <v>252.3861383877492</v>
+        <v>254.8732289163533</v>
       </c>
       <c r="K38">
-        <v>1402.937596732878</v>
+        <v>1383.956931966615</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.63054102349705</v>
+        <v>42.85508985874267</v>
       </c>
       <c r="G39">
-        <v>405.6013720376795</v>
+        <v>390.1309265774414</v>
       </c>
       <c r="H39">
-        <v>1789.985923616376</v>
+        <v>1839.432296848911</v>
       </c>
       <c r="I39">
-        <v>258.9959695642782</v>
+        <v>268.2628950826468</v>
       </c>
       <c r="J39">
-        <v>201.0260534771377</v>
+        <v>198.8446347503497</v>
       </c>
       <c r="K39">
-        <v>1106.571737243514</v>
+        <v>1161.935388012484</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.22958783820948</v>
+        <v>45.01168426753465</v>
       </c>
       <c r="G40">
-        <v>420.8200958959426</v>
+        <v>411.3626770589762</v>
       </c>
       <c r="H40">
-        <v>1792.700184478482</v>
+        <v>1899.244823276955</v>
       </c>
       <c r="I40">
-        <v>328.970602575382</v>
+        <v>337.8324939058218</v>
       </c>
       <c r="J40">
-        <v>149.3794014479323</v>
+        <v>149.3121065464561</v>
       </c>
       <c r="K40">
-        <v>876.2267903737007</v>
+        <v>880.1095841874276</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.14818274227378</v>
+        <v>41.73142325016111</v>
       </c>
       <c r="G41">
-        <v>410.448864524302</v>
+        <v>429.8309024347503</v>
       </c>
       <c r="H41">
-        <v>1936.816667343038</v>
+        <v>1814.435267403925</v>
       </c>
       <c r="I41">
-        <v>396.4399124539687</v>
+        <v>405.8373437886436</v>
       </c>
       <c r="J41">
-        <v>103.5710723593543</v>
+        <v>102.5819438222328</v>
       </c>
       <c r="K41">
-        <v>652.8753369484151</v>
+        <v>648.0768802489733</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.83457321499643</v>
+        <v>40.85895552200791</v>
       </c>
       <c r="G42">
-        <v>454.72793427873</v>
+        <v>424.7609050259647</v>
       </c>
       <c r="H42">
-        <v>1923.256243226769</v>
+        <v>1882.059779685264</v>
       </c>
       <c r="I42">
-        <v>464.6191692623947</v>
+        <v>461.9700693904603</v>
       </c>
       <c r="J42">
-        <v>51.61014271833185</v>
+        <v>54.10950443124612</v>
       </c>
       <c r="K42">
-        <v>324.9470911406817</v>
+        <v>352.6708823721282</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.64468122249824</v>
+        <v>40.29094887710959</v>
       </c>
       <c r="G43">
-        <v>469.7623276421679</v>
+        <v>455.2742576372328</v>
       </c>
       <c r="H43">
-        <v>1884.073725831051</v>
+        <v>1970.803385389698</v>
       </c>
       <c r="I43">
-        <v>567.2056856253266</v>
+        <v>567.1402884891867</v>
       </c>
       <c r="J43">
-        <v>5.474260052741274</v>
+        <v>5.365911608470904</v>
       </c>
       <c r="K43">
-        <v>33.35672071014589</v>
+        <v>32.46149675857328</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.14576246755472</v>
+        <v>40.27888030169921</v>
       </c>
       <c r="G44">
-        <v>473.9875960219253</v>
+        <v>478.8843073673031</v>
       </c>
       <c r="H44">
-        <v>1992.518170421993</v>
+        <v>1902.275693757639</v>
       </c>
       <c r="I44">
-        <v>657.3762832628753</v>
+        <v>663.5397239352403</v>
       </c>
       <c r="J44">
-        <v>-44.79043298071142</v>
+        <v>-42.59699985603024</v>
       </c>
       <c r="K44">
-        <v>-290.381730138831</v>
+        <v>-291.1090723844583</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.37288423158039</v>
+        <v>41.7424695788695</v>
       </c>
       <c r="G45">
-        <v>489.7507196080867</v>
+        <v>474.5855624028739</v>
       </c>
       <c r="H45">
-        <v>1948.325536740495</v>
+        <v>1823.051961277313</v>
       </c>
       <c r="I45">
-        <v>747.0927882146998</v>
+        <v>720.1529338533073</v>
       </c>
       <c r="J45">
-        <v>-92.0730710606819</v>
+        <v>-91.69915573427282</v>
       </c>
       <c r="K45">
-        <v>-596.5849447768816</v>
+        <v>-612.624670487205</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.84129568044202</v>
+        <v>40.27031273341328</v>
       </c>
       <c r="G46">
-        <v>519.7761412356105</v>
+        <v>489.7733247616721</v>
       </c>
       <c r="H46">
-        <v>1905.02804442046</v>
+        <v>1935.495356500766</v>
       </c>
       <c r="I46">
-        <v>794.1508260055255</v>
+        <v>810.7569880440352</v>
       </c>
       <c r="J46">
-        <v>-145.8034470416767</v>
+        <v>-142.9128221761417</v>
       </c>
       <c r="K46">
-        <v>-929.4550658071787</v>
+        <v>-997.0367220610727</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.4685261256</v>
+        <v>41.64663433482001</v>
       </c>
       <c r="G47">
-        <v>525.2837760448797</v>
+        <v>542.3794895138074</v>
       </c>
       <c r="H47">
-        <v>2020.900652488499</v>
+        <v>1907.384580633153</v>
       </c>
       <c r="I47">
-        <v>852.4753047402058</v>
+        <v>868.615664384301</v>
       </c>
       <c r="J47">
-        <v>-195.8322748292694</v>
+        <v>-181.8744758936258</v>
       </c>
       <c r="K47">
-        <v>-1260.659191068119</v>
+        <v>-1333.307433435114</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.37430670094185</v>
+        <v>39.06747828915987</v>
       </c>
       <c r="G48">
-        <v>561.8435513986741</v>
+        <v>543.764030098852</v>
       </c>
       <c r="H48">
-        <v>1948.417378326346</v>
+        <v>1878.393423196535</v>
       </c>
       <c r="I48">
-        <v>957.1125494766882</v>
+        <v>977.3335305039617</v>
       </c>
       <c r="J48">
-        <v>-245.7748365680674</v>
+        <v>-231.6259881972831</v>
       </c>
       <c r="K48">
-        <v>-1764.752793982507</v>
+        <v>-1707.991780068715</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.78966324430353</v>
+        <v>37.13452081561477</v>
       </c>
       <c r="G49">
-        <v>535.0076422057059</v>
+        <v>575.3365063956701</v>
       </c>
       <c r="H49">
-        <v>1929.982413901015</v>
+        <v>1851.396895932831</v>
       </c>
       <c r="I49">
-        <v>1120.945662716185</v>
+        <v>1053.321238590962</v>
       </c>
       <c r="J49">
-        <v>-298.8572763707067</v>
+        <v>-293.0589796051331</v>
       </c>
       <c r="K49">
-        <v>-2103.529710578654</v>
+        <v>-2114.004110017172</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.34656938030965</v>
+        <v>40.14694411454768</v>
       </c>
       <c r="G50">
-        <v>556.1244587596448</v>
+        <v>591.042834220911</v>
       </c>
       <c r="H50">
-        <v>1881.573874590297</v>
+        <v>1926.138507438349</v>
       </c>
       <c r="I50">
-        <v>1207.577487106981</v>
+        <v>1113.324263195674</v>
       </c>
       <c r="J50">
-        <v>-349.1669425584957</v>
+        <v>-334.745310194726</v>
       </c>
       <c r="K50">
-        <v>-2522.212942947449</v>
+        <v>-2616.955285657462</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.67633959848165</v>
+        <v>37.50101697996585</v>
       </c>
       <c r="G51">
-        <v>584.1433064340284</v>
+        <v>582.6731300021696</v>
       </c>
       <c r="H51">
-        <v>2041.447175329796</v>
+        <v>1924.913740483122</v>
       </c>
       <c r="I51">
-        <v>1271.69721139417</v>
+        <v>1202.457756782642</v>
       </c>
       <c r="J51">
-        <v>-386.166239674952</v>
+        <v>-374.9576861905511</v>
       </c>
       <c r="K51">
-        <v>-2981.073659206649</v>
+        <v>-2971.590519024263</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.58373984095426</v>
+        <v>38.83793412606616</v>
       </c>
       <c r="G52">
-        <v>584.2979881875019</v>
+        <v>598.969915742827</v>
       </c>
       <c r="H52">
-        <v>1930.935427982245</v>
+        <v>1979.258288330617</v>
       </c>
       <c r="I52">
-        <v>1362.283929326016</v>
+        <v>1388.794584677894</v>
       </c>
       <c r="J52">
-        <v>-431.0213602851461</v>
+        <v>-423.2361966072007</v>
       </c>
       <c r="K52">
-        <v>-3229.37381736187</v>
+        <v>-3371.375305512269</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.05526494539405</v>
+        <v>36.79598455049484</v>
       </c>
       <c r="G53">
-        <v>643.9918520253422</v>
+        <v>626.684811515172</v>
       </c>
       <c r="H53">
-        <v>1983.528077138907</v>
+        <v>1977.05222643962</v>
       </c>
       <c r="I53">
-        <v>1406.544152108367</v>
+        <v>1383.342695308871</v>
       </c>
       <c r="J53">
-        <v>-494.1541374400793</v>
+        <v>-499.2076934240469</v>
       </c>
       <c r="K53">
-        <v>-3807.860867783963</v>
+        <v>-3841.576217779594</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.37949071577286</v>
+        <v>36.20145548546337</v>
       </c>
       <c r="G54">
-        <v>638.6058275251602</v>
+        <v>665.2981349746592</v>
       </c>
       <c r="H54">
-        <v>1895.443415291676</v>
+        <v>1988.987245011803</v>
       </c>
       <c r="I54">
-        <v>1541.973011012438</v>
+        <v>1550.698887080634</v>
       </c>
       <c r="J54">
-        <v>-545.8600674946289</v>
+        <v>-518.3946773960771</v>
       </c>
       <c r="K54">
-        <v>-4500.460835143194</v>
+        <v>-4131.767366679252</v>
       </c>
     </row>
   </sheetData>
